--- a/components/Lista Precios.xlsx
+++ b/components/Lista Precios.xlsx
@@ -1,47 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RIMOARCHIVOS\Desktop\Rimo 2\Taller\PROYECTOS\WEB-MOBILE\BOTH\Independencia Monetaria\El Chango de Ale\1 Desarrollo\Supermercado\1 Desarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RIMOARCHIVOS\Desktop\Rimo 2\Taller\PROYECTOS\WEB-MOBILE\BOTH\Independencia Monetaria\El Chango de Ale\1 Desarrollo\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBBA06E-4734-44EE-A6DC-ADCD4471F8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F22CC-07CF-47DF-98D8-47B2D90C8032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{EEAF3517-3F29-4E00-B676-4879986F6E9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{EEAF3517-3F29-4E00-B676-4879986F6E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="LIMPIEZA" sheetId="1" r:id="rId1"/>
     <sheet name="BEBIDAS" sheetId="2" r:id="rId2"/>
     <sheet name="ALMACEN" sheetId="3" r:id="rId3"/>
-    <sheet name="SNACKS" sheetId="4" r:id="rId4"/>
-    <sheet name="CELIACOS" sheetId="6" r:id="rId5"/>
-    <sheet name="GOLOSINAS" sheetId="5" r:id="rId6"/>
-    <sheet name="GALLETITAS" sheetId="7" r:id="rId7"/>
+    <sheet name="DIETETICA" sheetId="8" r:id="rId4"/>
+    <sheet name="SNACKS" sheetId="4" r:id="rId5"/>
+    <sheet name="CELIACOS" sheetId="6" r:id="rId6"/>
+    <sheet name="GOLOSINAS" sheetId="5" r:id="rId7"/>
+    <sheet name="GALLETITAS" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="785">
   <si>
     <t>ALA MATIC LIQUIDO DP X 400 12 1170.00</t>
   </si>
@@ -2354,6 +2345,48 @@
   </si>
   <si>
     <t xml:space="preserve"> JUGO BAGGIO JUNIOR X 18 (MANZANA) 1 4436.46</t>
+  </si>
+  <si>
+    <t>Jalea Real</t>
+  </si>
+  <si>
+    <t>Aceite Coco neutro Entre Nuts</t>
+  </si>
+  <si>
+    <t>Aceite Olivos de Arauco(Envase Plástico)</t>
+  </si>
+  <si>
+    <t>Aceite Olivos de Arauco(Envase Vidrio)</t>
+  </si>
+  <si>
+    <t>Almendras</t>
+  </si>
+  <si>
+    <t>Nueces Peladas</t>
+  </si>
+  <si>
+    <t>Azucar Mascabo</t>
+  </si>
+  <si>
+    <t>Barras/Barritas Cereal</t>
+  </si>
+  <si>
+    <t>Coco Rallado</t>
+  </si>
+  <si>
+    <t>Copos de Maiz&lt;br&gt;(Sin Azucar)</t>
+  </si>
+  <si>
+    <t>Maní&lt;br&gt;(Pelado Sin Sal)</t>
+  </si>
+  <si>
+    <t>Miel&lt;br&gt;Sólida</t>
+  </si>
+  <si>
+    <t>Miel&lt;br&gt;Liquida</t>
+  </si>
+  <si>
+    <t>Pan Masa Madre Integral</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDAEA7C-1D65-4BCE-913A-32DE4B186210}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+    <sheetView topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5535,7 +5568,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+      <selection activeCell="C1" activeCellId="1" sqref="A1:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6234,15 +6267,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FA7DAE-1AD6-4C9B-BDD8-5B9233DD9D16}">
   <dimension ref="A1:D411"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+    <sheetView topLeftCell="B352" workbookViewId="0">
+      <selection activeCell="D363" sqref="B363:D363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.5703125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12409,12 +12442,11 @@
         <v xml:space="preserve"> TE MANZANILLA LA VIRGINIA</v>
       </c>
       <c r="C363">
-        <f t="shared" si="18"/>
-        <v>1181.73</v>
+        <v>1215.24</v>
       </c>
       <c r="D363">
         <f t="shared" si="19"/>
-        <v>1477.1624999999999</v>
+        <v>1519.05</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -13235,15 +13267,221 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E04FD1-3AC7-4515-B510-CBD9ABEABC44}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C16" si="0">B2*1.25</f>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3">
+        <v>4000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B4">
+        <v>4600</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>776</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B7">
+        <v>1700</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B8">
+        <v>522.94000000000005</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>653.67500000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B9">
+        <v>700</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>781</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B13">
+        <v>6200</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>783</v>
+      </c>
+      <c r="B14">
+        <v>6200</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>784</v>
+      </c>
+      <c r="B15">
+        <v>4100</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="e">
+        <f t="shared" ref="A16" si="1">LEFT(#REF!,FIND("#",SUBSTITUTE(#REF!," ","#",LEN(#REF!)-LEN(SUBSTITUTE(#REF!," ",""))-1))-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B16">
+        <v>1215.24</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1519.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715D868A-2E21-4C9E-A6A6-65F22264F2CA}">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="B112" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15400,19 +15638,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB749B3C-F399-4CB2-A454-D714ABEF991A}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15981,7 +16219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C18E75-6A79-434B-9378-76E99B0BFE2C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15995,7 +16233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4346DA1C-5491-40DB-BD38-79C125B15B87}">
   <dimension ref="A1"/>
   <sheetViews>
